--- a/修改文件.xlsx
+++ b/修改文件.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104">
   <si>
     <t>五环之歌</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>jingjingee804d5</t>
+  </si>
+  <si>
+    <t>ceshi</t>
   </si>
   <si>
     <t>hehed888804d1</t>
@@ -452,6 +455,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>光宇</t>
     </r>
     <r>
@@ -566,6 +575,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>光宇</t>
     </r>
     <r>
@@ -629,10 +644,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -697,22 +712,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,6 +736,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -733,14 +757,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -748,50 +764,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -810,14 +786,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -831,19 +847,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="41">
@@ -903,187 +918,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,49 +1141,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1188,17 +1170,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1230,156 +1245,156 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1893,7 +1908,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F48"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2323,12 +2338,15 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" ht="14.25" spans="2:6">
+    <row r="28" ht="14.25" spans="1:6">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
       <c r="B28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D28" s="3">
         <v>0.123</v>
@@ -2345,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D29" s="3">
         <v>0.123</v>
@@ -2362,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D30" s="3">
         <v>0.123</v>
@@ -2379,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D31" s="3">
         <v>0.123</v>
@@ -2396,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D32" s="3">
         <v>0.123</v>
@@ -2420,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D34" s="3">
         <v>0.123</v>
@@ -2437,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D35" s="3">
         <v>0.123</v>
@@ -2454,16 +2472,16 @@
         <v>0</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D36" s="3">
         <v>0.123</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="2:6">
@@ -2471,16 +2489,16 @@
         <v>0</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.123</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="D37" s="3">
-        <v>0.123</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="2:6">
@@ -2488,16 +2506,16 @@
         <v>0</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D38" s="3">
         <v>0.123</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" ht="28.5" spans="2:7">
@@ -2505,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D39" s="7">
         <v>0.123</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" ht="14.25" spans="2:6">
@@ -2525,16 +2543,16 @@
         <v>0</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D40" s="3">
         <v>0.123</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="2:6">
@@ -2542,16 +2560,16 @@
         <v>0</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D41" s="3">
         <v>0.123</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="2:6">
@@ -2559,16 +2577,16 @@
         <v>0</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D42" s="3">
         <v>0.123</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="2:6">
@@ -2576,16 +2594,16 @@
         <v>0</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D43" s="3">
         <v>0.123</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="2:6">
@@ -2593,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D44" s="3">
         <v>0.123</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" ht="14.25" spans="2:6">
@@ -2610,16 +2628,16 @@
         <v>0</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D45" s="3">
         <v>0.123</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="2:6">
@@ -2627,16 +2645,16 @@
         <v>0</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D46" s="3">
         <v>0.123</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="2:6">
@@ -2644,16 +2662,16 @@
         <v>0</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D47" s="3">
         <v>0.123</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="2:6">
@@ -2661,312 +2679,312 @@
         <v>0</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D48" s="3">
         <v>0.123</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" ht="14.25" spans="1:9">
       <c r="A49" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" s="10">
         <v>2012</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D49" s="12">
         <v>0.123</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F49" s="13">
         <v>2014</v>
       </c>
       <c r="I49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" ht="17.25" spans="1:9">
       <c r="A50" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="17">
+        <v>0.123</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I50" t="s">
         <v>55</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D50" s="17">
-        <v>0.123</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G50" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="I50" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:9">
       <c r="A51" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D51" s="12">
         <v>0.123</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:9">
       <c r="A52" s="22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D52" s="24">
         <v>0.123</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:9">
       <c r="A53" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D53" s="1">
         <v>0.123</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" ht="14.25" spans="1:9">
       <c r="A54" s="28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D54" s="31">
         <v>0.123</v>
       </c>
       <c r="E54" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F54" s="33"/>
       <c r="I54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" ht="17.25" spans="1:9">
       <c r="A55" s="34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C55" s="36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D55" s="17">
         <v>0.123</v>
       </c>
       <c r="E55" s="37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F55" s="37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G55" s="38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:9">
       <c r="A56" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D56" s="12">
         <v>0.123</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G56" s="40"/>
       <c r="I56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:9">
       <c r="A57" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C57" s="42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D57" s="43">
         <v>0.123</v>
       </c>
       <c r="E57" s="44" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F57" s="45">
         <v>2015</v>
       </c>
       <c r="G57" s="46"/>
       <c r="I57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:9">
       <c r="A58" s="47" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D58" s="13">
         <v>0.123</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:9">
       <c r="A59" s="27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B59" s="48" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C59" s="49" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D59" s="24">
         <v>0.123</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F59" s="50"/>
       <c r="G59" s="51" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:3">
       <c r="A61" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B61">
         <v>2014</v>
       </c>
       <c r="C61" s="52" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:3">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B62">
         <v>2014</v>
       </c>
       <c r="C62" s="52" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B63">
         <v>2013</v>
       </c>
       <c r="C63" s="53" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:4">
